--- a/data/trans_orig/Q5404-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5404-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AA1D5AC-B5B2-416B-8002-F9925C9D73A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECC9F742-7135-4211-8CE6-7B05F9532FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AEA8DC30-EC9C-422B-B3B0-27DAEAEAAA0C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A3B58D53-9BC7-4DC1-920C-47BE6C5D06D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="558">
   <si>
     <t>Población según si es capaz de manejar dinero en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,7 +101,7 @@
     <t>3,98%</t>
   </si>
   <si>
-    <t>12,07%</t>
+    <t>13,94%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -125,7 +125,7 @@
     <t>96,02%</t>
   </si>
   <si>
-    <t>87,93%</t>
+    <t>86,06%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -134,7 +134,7 @@
     <t>2,13%</t>
   </si>
   <si>
-    <t>8,27%</t>
+    <t>7,46%</t>
   </si>
   <si>
     <t>6,29%</t>
@@ -149,1564 +149,1570 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
   </si>
   <si>
     <t>11,46%</t>
   </si>
   <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
   </si>
   <si>
     <t>92,7%</t>
   </si>
   <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,34%</t>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
+    <t>2,08%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
   </si>
   <si>
     <t>5,33%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
+    <t>95,33%</t>
   </si>
   <si>
     <t>87,63%</t>
   </si>
   <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
   </si>
   <si>
     <t>90,18%</t>
   </si>
   <si>
-    <t>88,82%</t>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
   </si>
 </sst>
 </file>
@@ -2118,7 +2124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12707141-C8CE-4519-8C1F-48693E4B1720}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8A020A-F05A-48F5-AC85-E4DA46517EA6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2577,7 +2583,7 @@
         <v>194</v>
       </c>
       <c r="N10" s="7">
-        <v>190641</v>
+        <v>190642</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>53</v>
@@ -2628,7 +2634,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213825</v>
+        <v>213826</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -2863,10 +2869,10 @@
         <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2875,13 +2881,13 @@
         <v>6545</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -2890,13 +2896,13 @@
         <v>10036</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2917,13 @@
         <v>1830</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2926,13 +2932,13 @@
         <v>5746</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -2941,13 +2947,13 @@
         <v>7576</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,13 +2968,13 @@
         <v>99050</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H18" s="7">
         <v>128</v>
@@ -2977,13 +2983,13 @@
         <v>123559</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M18" s="7">
         <v>225</v>
@@ -2992,13 +2998,13 @@
         <v>222609</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,7 +3060,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3066,13 +3072,13 @@
         <v>3340</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -3081,13 +3087,13 @@
         <v>8400</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -3096,13 +3102,13 @@
         <v>11739</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,13 +3123,13 @@
         <v>4983</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -3132,13 +3138,13 @@
         <v>14333</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -3147,13 +3153,13 @@
         <v>19316</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,13 +3174,13 @@
         <v>128894</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H22" s="7">
         <v>179</v>
@@ -3183,13 +3189,13 @@
         <v>186045</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>325</v>
@@ -3198,13 +3204,13 @@
         <v>314939</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +3278,13 @@
         <v>10539</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -3287,13 +3293,13 @@
         <v>28788</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -3302,13 +3308,13 @@
         <v>39327</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,13 +3329,13 @@
         <v>20724</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -3338,13 +3344,13 @@
         <v>33708</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
@@ -3353,13 +3359,13 @@
         <v>54432</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3380,13 @@
         <v>471204</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>603</v>
@@ -3389,13 +3395,13 @@
         <v>614346</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>1092</v>
@@ -3404,13 +3410,13 @@
         <v>1085550</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,7 +3472,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3487,7 +3493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C782FC3D-3F14-497D-AC92-2DAD0C855DA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDD8CF9-F9E3-470E-A5EF-1643E47C4A54}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3504,7 +3510,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3611,13 +3617,13 @@
         <v>965</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3626,13 +3632,13 @@
         <v>1131</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3641,13 +3647,13 @@
         <v>2096</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,7 +3674,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3677,13 +3683,13 @@
         <v>1172</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3692,13 +3698,13 @@
         <v>1172</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,10 +3719,10 @@
         <v>20233</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -3728,10 +3734,10 @@
         <v>22891</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -3743,13 +3749,13 @@
         <v>43123</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +3823,13 @@
         <v>4105</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -3832,13 +3838,13 @@
         <v>7448</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -3847,13 +3853,13 @@
         <v>11553</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +3874,13 @@
         <v>3405</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -3883,13 +3889,13 @@
         <v>15981</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -3898,13 +3904,13 @@
         <v>19386</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,13 +3925,13 @@
         <v>110839</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
@@ -3934,13 +3940,13 @@
         <v>118164</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>211</v>
@@ -3949,13 +3955,13 @@
         <v>229003</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,13 +4029,13 @@
         <v>6450</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -4038,13 +4044,13 @@
         <v>15096</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -4053,10 +4059,10 @@
         <v>21546</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>67</v>
+        <v>211</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>213</v>
@@ -4092,10 +4098,10 @@
         <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4104,13 +4110,13 @@
         <v>41047</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,10 +4134,10 @@
         <v>47</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -4140,13 +4146,13 @@
         <v>149895</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>260</v>
@@ -4155,13 +4161,13 @@
         <v>283704</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4235,13 @@
         <v>6400</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4244,13 +4250,13 @@
         <v>9771</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4259,13 +4265,13 @@
         <v>16172</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,10 +4286,10 @@
         <v>3141</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>241</v>
@@ -4313,10 +4319,10 @@
         <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4337,13 @@
         <v>94057</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H18" s="7">
         <v>106</v>
@@ -4346,13 +4352,13 @@
         <v>115116</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M18" s="7">
         <v>188</v>
@@ -4361,13 +4367,13 @@
         <v>209173</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,7 +4429,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4435,13 +4441,13 @@
         <v>5115</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -4450,13 +4456,13 @@
         <v>12521</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -4465,13 +4471,13 @@
         <v>17635</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,13 +4492,13 @@
         <v>9278</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>264</v>
+        <v>33</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -4504,10 +4510,10 @@
         <v>14</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -4516,13 +4522,13 @@
         <v>25299</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,13 +4543,13 @@
         <v>147220</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -4552,13 +4558,13 @@
         <v>215209</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>25</v>
       </c>
       <c r="M22" s="7">
         <v>338</v>
@@ -4641,7 +4647,7 @@
         <v>23035</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>280</v>
@@ -4835,7 +4841,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4856,7 +4862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8D4921-C754-48A6-B7E9-3F25BB9591C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8565F849-F31A-41AC-9B25-E1C0CD767177}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5013,7 +5019,7 @@
         <v>311</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>312</v>
@@ -5037,7 +5043,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5061,13 +5067,13 @@
         <v>897</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>90</v>
+        <v>315</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,10 +5088,10 @@
         <v>20050</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -5097,10 +5103,10 @@
         <v>21453</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -5112,13 +5118,13 @@
         <v>41503</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,13 +5192,13 @@
         <v>3452</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -5201,13 +5207,13 @@
         <v>3381</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -5216,13 +5222,13 @@
         <v>6833</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>326</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>327</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,13 +5243,13 @@
         <v>4091</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -5252,13 +5258,13 @@
         <v>9198</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>331</v>
+        <v>220</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -5273,7 +5279,7 @@
         <v>333</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>334</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,13 +5294,13 @@
         <v>107503</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H10" s="7">
         <v>124</v>
@@ -5303,13 +5309,13 @@
         <v>137372</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M10" s="7">
         <v>239</v>
@@ -5318,13 +5324,13 @@
         <v>244875</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,13 +5398,13 @@
         <v>4460</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>345</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -5407,13 +5413,13 @@
         <v>5363</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -5425,10 +5431,10 @@
         <v>33</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>350</v>
+        <v>119</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5443,13 +5449,13 @@
         <v>4182</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>352</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -5458,13 +5464,13 @@
         <v>14053</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -5473,13 +5479,13 @@
         <v>18235</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5494,13 +5500,13 @@
         <v>156299</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H14" s="7">
         <v>167</v>
@@ -5509,13 +5515,13 @@
         <v>199747</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M14" s="7">
         <v>332</v>
@@ -5524,13 +5530,13 @@
         <v>356046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>362</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,13 +5604,13 @@
         <v>793</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>366</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5616,10 +5622,10 @@
         <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>370</v>
+        <v>113</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>371</v>
+        <v>46</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5628,13 +5634,13 @@
         <v>8357</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5655,13 @@
         <v>5592</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -5664,13 +5670,13 @@
         <v>12721</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -5679,13 +5685,13 @@
         <v>18313</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5706,13 @@
         <v>108650</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H18" s="7">
         <v>102</v>
@@ -5715,13 +5721,13 @@
         <v>122311</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="M18" s="7">
         <v>209</v>
@@ -5730,13 +5736,13 @@
         <v>230961</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,7 +5798,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5810,7 +5816,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -5819,13 +5825,13 @@
         <v>11303</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>87</v>
+        <v>387</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -5834,13 +5840,13 @@
         <v>11303</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5861,13 @@
         <v>7087</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>266</v>
+        <v>392</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -5870,13 +5876,13 @@
         <v>11741</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>396</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -5885,13 +5891,13 @@
         <v>18828</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>196</v>
+        <v>398</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5912,13 @@
         <v>167531</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>406</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>181</v>
@@ -5921,13 +5927,13 @@
         <v>219737</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>405</v>
       </c>
       <c r="M22" s="7">
         <v>363</v>
@@ -5936,13 +5942,13 @@
         <v>387269</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>411</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +6016,13 @@
         <v>10343</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>413</v>
+        <v>260</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -6028,10 +6034,10 @@
         <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>189</v>
+        <v>409</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -6040,13 +6046,13 @@
         <v>39044</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,10 +6070,10 @@
         <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -6076,13 +6082,13 @@
         <v>48610</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>420</v>
+        <v>72</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -6091,13 +6097,13 @@
         <v>69562</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,13 +6118,13 @@
         <v>560033</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>106</v>
+        <v>422</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H26" s="7">
         <v>594</v>
@@ -6127,13 +6133,13 @@
         <v>700620</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M26" s="7">
         <v>1185</v>
@@ -6142,13 +6148,13 @@
         <v>1260653</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>74</v>
+        <v>427</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6204,7 +6210,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6225,7 +6231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93277E37-86B9-47E9-AE6A-BC390877D67F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D29B4AE-28FD-40DF-9401-1966A93105AD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6242,7 +6248,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6364,13 +6370,13 @@
         <v>2040</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -6379,13 +6385,13 @@
         <v>2040</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>434</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>148</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6400,13 +6406,13 @@
         <v>2597</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>438</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>439</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -6415,13 +6421,13 @@
         <v>3662</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>440</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>146</v>
+        <v>438</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -6430,13 +6436,13 @@
         <v>6259</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>188</v>
+        <v>416</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,13 +6457,13 @@
         <v>27067</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H6" s="7">
         <v>97</v>
@@ -6466,13 +6472,13 @@
         <v>39719</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="M6" s="7">
         <v>141</v>
@@ -6481,13 +6487,13 @@
         <v>66786</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,13 +6561,13 @@
         <v>1613</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -6570,13 +6576,13 @@
         <v>6217</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -6585,13 +6591,13 @@
         <v>7830</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>458</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>145</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6609,7 +6615,7 @@
         <v>307</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>169</v>
+        <v>458</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>459</v>
@@ -6624,10 +6630,10 @@
         <v>460</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="M9" s="7">
         <v>49</v>
@@ -6636,13 +6642,13 @@
         <v>22790</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,13 +6663,13 @@
         <v>113926</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H10" s="7">
         <v>287</v>
@@ -6672,13 +6678,13 @@
         <v>127650</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="M10" s="7">
         <v>473</v>
@@ -6687,13 +6693,13 @@
         <v>241576</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6761,13 +6767,13 @@
         <v>3686</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>87</v>
+        <v>232</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -6776,10 +6782,10 @@
         <v>11572</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>477</v>
@@ -6791,13 +6797,13 @@
         <v>15258</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>356</v>
+        <v>478</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>288</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6815,10 +6821,10 @@
         <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>479</v>
+        <v>431</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -6827,13 +6833,13 @@
         <v>25268</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>483</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -6842,13 +6848,13 @@
         <v>31069</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>99</v>
+        <v>484</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,10 +6869,10 @@
         <v>164360</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>486</v>
+        <v>102</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>487</v>
@@ -6896,7 +6902,7 @@
         <v>491</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>492</v>
@@ -6973,7 +6979,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>494</v>
+        <v>367</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -6982,10 +6988,10 @@
         <v>9629</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>496</v>
@@ -6997,13 +7003,13 @@
         <v>10584</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>183</v>
+        <v>498</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7018,13 +7024,13 @@
         <v>5917</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -7033,13 +7039,13 @@
         <v>16235</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -7048,13 +7054,13 @@
         <v>22152</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,13 +7075,13 @@
         <v>141317</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H18" s="7">
         <v>249</v>
@@ -7084,13 +7090,13 @@
         <v>255251</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="M18" s="7">
         <v>434</v>
@@ -7099,13 +7105,13 @@
         <v>396569</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,7 +7167,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7173,13 +7179,13 @@
         <v>2698</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>190</v>
+        <v>519</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -7188,13 +7194,13 @@
         <v>12820</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>261</v>
+        <v>521</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -7203,13 +7209,13 @@
         <v>15518</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>520</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,13 +7230,13 @@
         <v>9610</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>522</v>
+        <v>455</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>403</v>
+        <v>526</v>
       </c>
       <c r="H21" s="7">
         <v>40</v>
@@ -7239,13 +7245,13 @@
         <v>26052</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="M21" s="7">
         <v>55</v>
@@ -7254,13 +7260,13 @@
         <v>35662</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>526</v>
+        <v>287</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7275,13 +7281,13 @@
         <v>207936</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>223</v>
+        <v>533</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H22" s="7">
         <v>463</v>
@@ -7290,28 +7296,28 @@
         <v>270027</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>431</v>
+        <v>537</v>
       </c>
       <c r="M22" s="7">
         <v>771</v>
       </c>
       <c r="N22" s="7">
-        <v>477962</v>
+        <v>477963</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7353,7 +7359,7 @@
         <v>850</v>
       </c>
       <c r="N23" s="7">
-        <v>529142</v>
+        <v>529143</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>24</v>
@@ -7379,13 +7385,13 @@
         <v>8953</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>536</v>
+        <v>390</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="H24" s="7">
         <v>72</v>
@@ -7394,13 +7400,13 @@
         <v>42277</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>415</v>
+        <v>543</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="M24" s="7">
         <v>87</v>
@@ -7409,13 +7415,13 @@
         <v>51230</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>186</v>
+        <v>437</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>541</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,13 +7436,13 @@
         <v>33363</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>517</v>
+        <v>39</v>
       </c>
       <c r="H25" s="7">
         <v>156</v>
@@ -7445,13 +7451,13 @@
         <v>84569</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>545</v>
+        <v>432</v>
       </c>
       <c r="M25" s="7">
         <v>206</v>
@@ -7460,13 +7466,13 @@
         <v>117931</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>548</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7481,13 +7487,13 @@
         <v>654605</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>549</v>
+        <v>317</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H26" s="7">
         <v>1478</v>
@@ -7496,13 +7502,13 @@
         <v>898703</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M26" s="7">
         <v>2440</v>
@@ -7511,13 +7517,13 @@
         <v>1553308</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>430</v>
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,7 +7579,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5404-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5404-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECC9F742-7135-4211-8CE6-7B05F9532FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48AEF986-0CBB-4C6A-A7E2-1D609ACAE8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A3B58D53-9BC7-4DC1-920C-47BE6C5D06D5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F53DB074-6980-409E-9A9B-AEA997C28C29}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="549">
   <si>
     <t>Población según si es capaz de manejar dinero en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No puede</t>
@@ -95,13 +95,13 @@
     <t>8,29%</t>
   </si>
   <si>
-    <t>24,53%</t>
+    <t>24,43%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>13,94%</t>
+    <t>13,57%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -119,1567 +119,1540 @@
     <t>91,71%</t>
   </si>
   <si>
-    <t>75,47%</t>
+    <t>75,57%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
     <t>7,46%</t>
   </si>
   <si>
-    <t>6,29%</t>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
   </si>
   <si>
     <t>6,2%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
   </si>
   <si>
     <t>8,25%</t>
@@ -2124,7 +2097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8A020A-F05A-48F5-AC85-E4DA46517EA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A60D443-234C-4FC8-B9F5-07337A5E7028}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2583,7 +2556,7 @@
         <v>194</v>
       </c>
       <c r="N10" s="7">
-        <v>190642</v>
+        <v>190641</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>53</v>
@@ -2634,7 +2607,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213826</v>
+        <v>213825</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -2678,10 +2651,10 @@
         <v>59</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -2690,13 +2663,13 @@
         <v>7781</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2684,13 @@
         <v>3753</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2729,10 +2702,10 @@
         <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -2741,13 +2714,13 @@
         <v>12110</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2735,13 @@
         <v>140318</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>157</v>
@@ -2777,13 +2750,13 @@
         <v>168360</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>297</v>
@@ -2792,13 +2765,13 @@
         <v>308677</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,7 +2827,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2866,10 +2839,10 @@
         <v>3491</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>84</v>
@@ -3138,13 +3111,13 @@
         <v>14333</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -3153,13 +3126,13 @@
         <v>19316</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,13 +3147,13 @@
         <v>128894</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>179</v>
@@ -3189,13 +3162,13 @@
         <v>186045</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>325</v>
@@ -3204,13 +3177,13 @@
         <v>314939</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3251,13 @@
         <v>10539</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -3293,13 +3266,13 @@
         <v>28788</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -3308,13 +3281,13 @@
         <v>39327</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3302,13 @@
         <v>20724</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -3344,13 +3317,13 @@
         <v>33708</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
@@ -3359,13 +3332,13 @@
         <v>54432</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3353,13 @@
         <v>471204</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>603</v>
@@ -3395,13 +3368,13 @@
         <v>614346</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>1092</v>
@@ -3410,13 +3383,13 @@
         <v>1085550</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,7 +3445,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3493,7 +3466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDD8CF9-F9E3-470E-A5EF-1643E47C4A54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0E4709-E7D5-4626-8D2B-6115C1E4AEC7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3510,7 +3483,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3617,7 +3590,7 @@
         <v>965</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
@@ -3892,10 +3865,10 @@
         <v>191</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -3904,13 +3877,13 @@
         <v>19386</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3898,13 @@
         <v>110839</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
@@ -3940,13 +3913,13 @@
         <v>118164</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>211</v>
@@ -3955,13 +3928,13 @@
         <v>229003</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +4002,13 @@
         <v>6450</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -4044,13 +4017,13 @@
         <v>15096</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -4059,13 +4032,13 @@
         <v>21546</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4053,13 @@
         <v>14619</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -4095,13 +4068,13 @@
         <v>26428</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4110,13 +4083,13 @@
         <v>41047</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,10 +4107,10 @@
         <v>47</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -4146,13 +4119,13 @@
         <v>149895</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>260</v>
@@ -4161,13 +4134,13 @@
         <v>283704</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,7 +4196,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4235,13 +4208,13 @@
         <v>6400</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4250,13 +4223,13 @@
         <v>9771</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4265,13 +4238,13 @@
         <v>16172</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,10 +4259,10 @@
         <v>3141</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>241</v>
@@ -4373,7 +4346,7 @@
         <v>255</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>256</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,10 +4414,10 @@
         <v>5115</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>258</v>
@@ -4495,7 +4468,7 @@
         <v>265</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>266</v>
@@ -4522,13 +4495,13 @@
         <v>25299</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4516,13 @@
         <v>147220</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -4558,13 +4531,13 @@
         <v>215209</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="M22" s="7">
         <v>338</v>
@@ -4647,7 +4620,7 @@
         <v>23035</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>280</v>
@@ -4665,10 +4638,10 @@
         <v>282</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M24" s="7">
         <v>62</v>
@@ -4677,13 +4650,13 @@
         <v>69002</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4671,13 @@
         <v>30443</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>290</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -4713,13 +4686,13 @@
         <v>75733</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>95</v>
@@ -4728,13 +4701,13 @@
         <v>106177</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4722,13 @@
         <v>506158</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>583</v>
@@ -4764,13 +4737,13 @@
         <v>621275</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>1041</v>
@@ -4779,13 +4752,13 @@
         <v>1127433</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,7 +4814,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4862,7 +4835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8565F849-F31A-41AC-9B25-E1C0CD767177}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF424D2-5174-4499-B9B9-40337EC1C1BA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4879,7 +4852,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4986,13 +4959,13 @@
         <v>1638</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5001,13 +4974,13 @@
         <v>1089</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5016,13 +4989,13 @@
         <v>2727</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>309</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5025,13 @@
         <v>897</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -5067,13 +5040,13 @@
         <v>897</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,10 +5061,10 @@
         <v>20050</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -5103,10 +5076,10 @@
         <v>21453</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -5118,13 +5091,13 @@
         <v>41503</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,13 +5165,13 @@
         <v>3452</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -5207,13 +5180,13 @@
         <v>3381</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>325</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>110</v>
+        <v>326</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -5225,10 +5198,10 @@
         <v>327</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
+        <v>328</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>148</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5243,13 +5216,13 @@
         <v>4091</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -5258,13 +5231,13 @@
         <v>9198</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>240</v>
+        <v>334</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>220</v>
+        <v>335</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -5273,13 +5246,13 @@
         <v>13289</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>207</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5294,13 +5267,13 @@
         <v>107503</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>335</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H10" s="7">
         <v>124</v>
@@ -5309,28 +5282,28 @@
         <v>137372</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>239</v>
       </c>
       <c r="N10" s="7">
-        <v>244875</v>
+        <v>244876</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,7 +5345,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264997</v>
+        <v>264998</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -5398,13 +5371,13 @@
         <v>4460</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>343</v>
+        <v>144</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -5413,13 +5386,13 @@
         <v>5363</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>264</v>
+        <v>351</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -5428,13 +5401,13 @@
         <v>9823</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>33</v>
+        <v>352</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>119</v>
+        <v>353</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,13 +5422,13 @@
         <v>4182</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>355</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -5464,13 +5437,13 @@
         <v>14053</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -5479,13 +5452,13 @@
         <v>18235</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5500,13 +5473,13 @@
         <v>156299</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="H14" s="7">
         <v>167</v>
@@ -5515,13 +5488,13 @@
         <v>199747</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M14" s="7">
         <v>332</v>
@@ -5530,13 +5503,13 @@
         <v>356046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,7 +5565,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5604,13 +5577,13 @@
         <v>793</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5619,13 +5592,13 @@
         <v>7564</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>113</v>
+        <v>374</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>46</v>
+        <v>375</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5634,13 +5607,13 @@
         <v>8357</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>350</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5628,13 @@
         <v>5592</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -5670,13 +5643,13 @@
         <v>12721</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>373</v>
+        <v>164</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -5685,13 +5658,13 @@
         <v>18313</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,13 +5679,13 @@
         <v>108650</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="H18" s="7">
         <v>102</v>
@@ -5721,13 +5694,13 @@
         <v>122311</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>382</v>
+        <v>102</v>
       </c>
       <c r="M18" s="7">
         <v>209</v>
@@ -5736,13 +5709,13 @@
         <v>230961</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,7 +5789,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -5825,13 +5798,13 @@
         <v>11303</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -5840,13 +5813,13 @@
         <v>11303</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5834,13 @@
         <v>7087</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>393</v>
+        <v>116</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -5876,13 +5849,13 @@
         <v>11741</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>395</v>
+        <v>246</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -5891,13 +5864,13 @@
         <v>18828</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5885,13 @@
         <v>167531</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>323</v>
+        <v>407</v>
       </c>
       <c r="H22" s="7">
         <v>181</v>
@@ -5927,13 +5900,13 @@
         <v>219737</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M22" s="7">
         <v>363</v>
@@ -5942,13 +5915,13 @@
         <v>387269</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>406</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>339</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6019,10 +5992,10 @@
         <v>91</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>408</v>
+        <v>240</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>260</v>
+        <v>412</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -6031,13 +6004,13 @@
         <v>28701</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>409</v>
+        <v>61</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -6046,13 +6019,13 @@
         <v>39044</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>413</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6070,10 +6043,10 @@
         <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>415</v>
+        <v>259</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -6082,13 +6055,13 @@
         <v>48610</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>72</v>
+        <v>281</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -6097,13 +6070,13 @@
         <v>69562</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6091,13 @@
         <v>560033</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H26" s="7">
         <v>594</v>
@@ -6133,13 +6106,13 @@
         <v>700620</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M26" s="7">
         <v>1185</v>
@@ -6148,13 +6121,13 @@
         <v>1260653</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,7 +6183,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -6231,7 +6204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D29B4AE-28FD-40DF-9401-1966A93105AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44DBC95-DA56-4BD2-A729-241C718E0024}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6248,7 +6221,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6373,10 +6346,10 @@
         <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -6385,13 +6358,13 @@
         <v>2040</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,13 +6379,13 @@
         <v>2597</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>438</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -6421,13 +6394,13 @@
         <v>3662</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -6436,13 +6409,13 @@
         <v>6259</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6457,13 +6430,13 @@
         <v>27067</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H6" s="7">
         <v>97</v>
@@ -6472,13 +6445,13 @@
         <v>39719</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M6" s="7">
         <v>141</v>
@@ -6487,13 +6460,13 @@
         <v>66786</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6561,13 +6534,13 @@
         <v>1613</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -6576,13 +6549,13 @@
         <v>6217</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -6597,7 +6570,7 @@
         <v>91</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>457</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6612,13 +6585,13 @@
         <v>9438</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
@@ -6627,13 +6600,13 @@
         <v>13351</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M9" s="7">
         <v>49</v>
@@ -6642,13 +6615,13 @@
         <v>22790</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6663,13 +6636,13 @@
         <v>113926</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H10" s="7">
         <v>287</v>
@@ -6678,13 +6651,13 @@
         <v>127650</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M10" s="7">
         <v>473</v>
@@ -6693,13 +6666,13 @@
         <v>241576</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6767,10 +6740,10 @@
         <v>3686</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>232</v>
+        <v>36</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>169</v>
@@ -6782,13 +6755,13 @@
         <v>11572</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M12" s="7">
         <v>27</v>
@@ -6797,13 +6770,13 @@
         <v>15258</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6818,13 +6791,13 @@
         <v>5800</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -6833,13 +6806,13 @@
         <v>25268</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>482</v>
+        <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>483</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -6848,7 +6821,7 @@
         <v>31069</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>484</v>
@@ -6902,7 +6875,7 @@
         <v>491</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>492</v>
@@ -6961,7 +6934,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6973,13 +6946,13 @@
         <v>956</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>493</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -6988,13 +6961,13 @@
         <v>9629</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>494</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>495</v>
+        <v>83</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -7003,13 +6976,13 @@
         <v>10584</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>498</v>
+        <v>347</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>499</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7024,13 +6997,13 @@
         <v>5917</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -7039,13 +7012,13 @@
         <v>16235</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -7054,13 +7027,13 @@
         <v>22152</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>507</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,13 +7048,13 @@
         <v>141317</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="H18" s="7">
         <v>249</v>
@@ -7090,13 +7063,13 @@
         <v>255251</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="M18" s="7">
         <v>434</v>
@@ -7105,13 +7078,13 @@
         <v>396569</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,13 +7152,13 @@
         <v>2698</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>519</v>
+        <v>334</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -7194,13 +7167,13 @@
         <v>12820</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -7209,10 +7182,10 @@
         <v>15518</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>524</v>
+        <v>89</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>166</v>
@@ -7230,13 +7203,13 @@
         <v>9610</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>525</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="H21" s="7">
         <v>40</v>
@@ -7245,13 +7218,13 @@
         <v>26052</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>527</v>
+        <v>418</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="M21" s="7">
         <v>55</v>
@@ -7260,13 +7233,13 @@
         <v>35662</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>530</v>
+        <v>354</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7281,13 +7254,13 @@
         <v>207936</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="H22" s="7">
         <v>463</v>
@@ -7296,13 +7269,13 @@
         <v>270027</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="M22" s="7">
         <v>771</v>
@@ -7311,13 +7284,13 @@
         <v>477963</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>540</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7358,13 @@
         <v>8953</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>390</v>
+        <v>529</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="H24" s="7">
         <v>72</v>
@@ -7400,13 +7373,13 @@
         <v>42277</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="M24" s="7">
         <v>87</v>
@@ -7415,13 +7388,13 @@
         <v>51230</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>267</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,13 +7409,13 @@
         <v>33363</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>39</v>
+        <v>537</v>
       </c>
       <c r="H25" s="7">
         <v>156</v>
@@ -7451,13 +7424,13 @@
         <v>84569</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M25" s="7">
         <v>206</v>
@@ -7466,10 +7439,10 @@
         <v>117931</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>245</v>
@@ -7487,13 +7460,13 @@
         <v>654605</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="H26" s="7">
         <v>1478</v>
@@ -7502,13 +7475,13 @@
         <v>898703</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="M26" s="7">
         <v>2440</v>
@@ -7517,13 +7490,13 @@
         <v>1553308</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7579,7 +7552,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5404-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5404-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48AEF986-0CBB-4C6A-A7E2-1D609ACAE8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{170190FF-9058-4728-9B50-3DEC6290850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F53DB074-6980-409E-9A9B-AEA997C28C29}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3B99D533-90AB-47D8-BD53-B23911F4F6FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="556">
   <si>
     <t>Población según si es capaz de manejar dinero en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -95,13 +95,13 @@
     <t>8,29%</t>
   </si>
   <si>
-    <t>24,43%</t>
+    <t>24,53%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>13,57%</t>
+    <t>12,07%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -119,13 +119,13 @@
     <t>91,71%</t>
   </si>
   <si>
-    <t>75,57%</t>
+    <t>75,47%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>86,43%</t>
+    <t>87,93%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -134,1558 +134,1579 @@
     <t>2,13%</t>
   </si>
   <si>
-    <t>6,63%</t>
+    <t>8,27%</t>
   </si>
   <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
     <t>2,12%</t>
   </si>
   <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
     <t>8,5%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
   </si>
   <si>
     <t>92,97%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>92,19%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
+    <t>95,28%</t>
   </si>
   <si>
     <t>87,63%</t>
   </si>
   <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
   </si>
   <si>
     <t>90,18%</t>
   </si>
   <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>88,82%</t>
   </si>
 </sst>
 </file>
@@ -2097,7 +2118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A60D443-234C-4FC8-B9F5-07337A5E7028}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC51D19-C650-4E04-BD0D-15FBD367219A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2651,10 +2672,10 @@
         <v>59</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -2663,13 +2684,13 @@
         <v>7781</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2705,13 @@
         <v>3753</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2702,10 +2723,10 @@
         <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -2714,13 +2735,13 @@
         <v>12110</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,13 +2756,13 @@
         <v>140318</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>157</v>
@@ -2750,13 +2771,13 @@
         <v>168360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>297</v>
@@ -2765,13 +2786,13 @@
         <v>308677</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,7 +2848,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2839,13 +2860,13 @@
         <v>3491</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2854,13 +2875,13 @@
         <v>6545</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -2869,13 +2890,13 @@
         <v>10036</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,13 +2911,13 @@
         <v>1830</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2905,13 +2926,13 @@
         <v>5746</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -2920,13 +2941,13 @@
         <v>7576</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2962,13 @@
         <v>99050</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H18" s="7">
         <v>128</v>
@@ -2956,13 +2977,13 @@
         <v>123559</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M18" s="7">
         <v>225</v>
@@ -2971,13 +2992,13 @@
         <v>222609</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,7 +3054,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3045,13 +3066,13 @@
         <v>3340</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -3060,13 +3081,13 @@
         <v>8400</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -3075,13 +3096,13 @@
         <v>11739</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3117,13 @@
         <v>4983</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -3111,13 +3132,13 @@
         <v>14333</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -3126,13 +3147,13 @@
         <v>19316</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3168,13 @@
         <v>128894</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H22" s="7">
         <v>179</v>
@@ -3162,13 +3183,13 @@
         <v>186045</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>325</v>
@@ -3177,13 +3198,13 @@
         <v>314939</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3272,13 @@
         <v>10539</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -3266,13 +3287,13 @@
         <v>28788</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -3281,13 +3302,13 @@
         <v>39327</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,13 +3323,13 @@
         <v>20724</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -3317,13 +3338,13 @@
         <v>33708</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
@@ -3332,13 +3353,13 @@
         <v>54432</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,13 +3374,13 @@
         <v>471204</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>603</v>
@@ -3368,13 +3389,13 @@
         <v>614346</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1092</v>
@@ -3383,13 +3404,13 @@
         <v>1085550</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,7 +3466,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3466,7 +3487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0E4709-E7D5-4626-8D2B-6115C1E4AEC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C5FAE7-7F06-4405-97C3-777998E06CC6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3483,7 +3504,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3590,13 +3611,13 @@
         <v>965</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3605,13 +3626,13 @@
         <v>1131</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3620,13 +3641,13 @@
         <v>2096</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,7 +3668,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3656,13 +3677,13 @@
         <v>1172</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3671,13 +3692,13 @@
         <v>1172</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,10 +3713,10 @@
         <v>20233</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -3707,10 +3728,10 @@
         <v>22891</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -3722,13 +3743,13 @@
         <v>43123</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>179</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +3817,13 @@
         <v>4105</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -3811,13 +3832,13 @@
         <v>7448</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -3826,13 +3847,13 @@
         <v>11553</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3868,13 @@
         <v>3405</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -3862,13 +3883,13 @@
         <v>15981</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -3877,13 +3898,13 @@
         <v>19386</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3919,13 @@
         <v>110839</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
@@ -3913,13 +3934,13 @@
         <v>118164</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>211</v>
@@ -3928,13 +3949,13 @@
         <v>229003</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +4023,13 @@
         <v>6450</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -4017,13 +4038,13 @@
         <v>15096</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -4032,13 +4053,13 @@
         <v>21546</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>211</v>
+        <v>113</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4074,13 @@
         <v>14619</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -4068,10 +4089,10 @@
         <v>26428</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>218</v>
@@ -4196,7 +4217,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4292,10 +4313,10 @@
         <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4331,13 @@
         <v>94057</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H18" s="7">
         <v>106</v>
@@ -4325,13 +4346,13 @@
         <v>115116</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M18" s="7">
         <v>188</v>
@@ -4340,13 +4361,13 @@
         <v>209173</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,7 +4423,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4417,10 +4438,10 @@
         <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -4429,13 +4450,13 @@
         <v>12521</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -4444,13 +4465,13 @@
         <v>17635</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4486,13 @@
         <v>9278</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -4483,10 +4504,10 @@
         <v>14</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -4495,7 +4516,7 @@
         <v>25299</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>92</v>
+        <v>268</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>269</v>
@@ -4620,7 +4641,7 @@
         <v>23035</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>280</v>
@@ -4638,10 +4659,10 @@
         <v>282</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M24" s="7">
         <v>62</v>
@@ -4650,13 +4671,13 @@
         <v>69002</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4692,13 @@
         <v>30443</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>182</v>
+        <v>290</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -4686,13 +4707,13 @@
         <v>75733</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>95</v>
@@ -4701,13 +4722,13 @@
         <v>106177</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4743,13 @@
         <v>506158</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>583</v>
@@ -4737,13 +4758,13 @@
         <v>621275</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M26" s="7">
         <v>1041</v>
@@ -4752,13 +4773,13 @@
         <v>1127433</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,7 +4835,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4835,7 +4856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF424D2-5174-4499-B9B9-40337EC1C1BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5599E958-309A-44ED-9AD5-067CAE79FE8F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4852,7 +4873,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4959,13 +4980,13 @@
         <v>1638</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4974,13 +4995,13 @@
         <v>1089</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4989,13 +5010,13 @@
         <v>2727</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>309</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,7 +5037,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5025,13 +5046,13 @@
         <v>897</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -5040,13 +5061,13 @@
         <v>897</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>313</v>
+        <v>90</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,7 +5082,7 @@
         <v>20050</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>316</v>
@@ -5180,13 +5201,13 @@
         <v>3381</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>325</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>326</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -5195,13 +5216,13 @@
         <v>6833</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,13 +5237,13 @@
         <v>4091</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -5231,13 +5252,13 @@
         <v>9198</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -5246,13 +5267,13 @@
         <v>13289</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,13 +5288,13 @@
         <v>107503</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>336</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H10" s="7">
         <v>124</v>
@@ -5282,28 +5303,28 @@
         <v>137372</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M10" s="7">
         <v>239</v>
       </c>
       <c r="N10" s="7">
-        <v>244876</v>
+        <v>244875</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,7 +5366,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264998</v>
+        <v>264997</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -5371,13 +5392,13 @@
         <v>4460</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>144</v>
+        <v>344</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -5386,13 +5407,13 @@
         <v>5363</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -5401,13 +5422,13 @@
         <v>9823</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>352</v>
+        <v>33</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,13 +5443,13 @@
         <v>4182</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -5437,13 +5458,13 @@
         <v>14053</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -5452,13 +5473,13 @@
         <v>18235</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,13 +5494,13 @@
         <v>156299</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H14" s="7">
         <v>167</v>
@@ -5488,13 +5509,13 @@
         <v>199747</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M14" s="7">
         <v>332</v>
@@ -5503,13 +5524,13 @@
         <v>356046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,7 +5586,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5577,13 +5598,13 @@
         <v>793</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>373</v>
+        <v>15</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5592,13 +5613,13 @@
         <v>7564</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5607,13 +5628,13 @@
         <v>8357</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5649,13 @@
         <v>5592</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -5643,13 +5664,13 @@
         <v>12721</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>164</v>
+        <v>379</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -5658,13 +5679,13 @@
         <v>18313</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,13 +5700,13 @@
         <v>108650</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H18" s="7">
         <v>102</v>
@@ -5694,13 +5715,13 @@
         <v>122311</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M18" s="7">
         <v>209</v>
@@ -5709,13 +5730,13 @@
         <v>230961</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,7 +5792,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5789,7 +5810,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -5801,10 +5822,10 @@
         <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -5813,13 +5834,13 @@
         <v>11303</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>399</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,13 +5855,13 @@
         <v>7087</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>400</v>
+        <v>266</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>116</v>
+        <v>398</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -5849,13 +5870,13 @@
         <v>11741</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>402</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -5864,13 +5885,13 @@
         <v>18828</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,13 +5906,13 @@
         <v>167531</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H22" s="7">
         <v>181</v>
@@ -5900,13 +5921,13 @@
         <v>219737</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>409</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>410</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>363</v>
@@ -5915,10 +5936,10 @@
         <v>387269</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>409</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>411</v>
@@ -5989,13 +6010,13 @@
         <v>10343</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>240</v>
+        <v>412</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -6004,13 +6025,13 @@
         <v>28701</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -6019,13 +6040,13 @@
         <v>39044</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>269</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,10 +6064,10 @@
         <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>259</v>
+        <v>419</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -6055,13 +6076,13 @@
         <v>48610</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>281</v>
+        <v>420</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -6070,13 +6091,13 @@
         <v>69562</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,13 +6112,13 @@
         <v>560033</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>423</v>
+        <v>106</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H26" s="7">
         <v>594</v>
@@ -6106,13 +6127,13 @@
         <v>700620</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="M26" s="7">
         <v>1185</v>
@@ -6121,13 +6142,13 @@
         <v>1260653</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>428</v>
+        <v>74</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,7 +6204,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -6204,7 +6225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44DBC95-DA56-4BD2-A729-241C718E0024}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAF856C-FE4A-4376-9202-795CE7452740}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6221,7 +6242,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6343,13 +6364,13 @@
         <v>2040</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -6358,13 +6379,13 @@
         <v>2040</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>435</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>436</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,10 +6403,10 @@
         <v>437</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -6394,13 +6415,13 @@
         <v>3662</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>289</v>
+        <v>440</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>439</v>
+        <v>146</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -6409,10 +6430,10 @@
         <v>6259</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>442</v>
+        <v>188</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>443</v>
@@ -6540,7 +6561,7 @@
         <v>454</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>455</v>
+        <v>143</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -6549,13 +6570,13 @@
         <v>6217</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -6564,13 +6585,13 @@
         <v>7830</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>91</v>
+        <v>458</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>208</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +6606,13 @@
         <v>9438</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
@@ -6600,10 +6621,10 @@
         <v>13351</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>462</v>
@@ -6740,13 +6761,13 @@
         <v>3686</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>475</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -6758,10 +6779,10 @@
         <v>476</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="M12" s="7">
         <v>27</v>
@@ -6770,13 +6791,13 @@
         <v>15258</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>479</v>
+        <v>356</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>481</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,13 +6812,13 @@
         <v>5800</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -6806,13 +6827,13 @@
         <v>25268</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>185</v>
+        <v>481</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -6821,13 +6842,13 @@
         <v>31069</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6842,10 +6863,10 @@
         <v>164360</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>487</v>
@@ -6875,7 +6896,7 @@
         <v>491</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>492</v>
@@ -6934,7 +6955,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6946,13 +6967,13 @@
         <v>956</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>65</v>
+        <v>493</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>376</v>
+        <v>494</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -6961,13 +6982,13 @@
         <v>9629</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>495</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -6976,13 +6997,13 @@
         <v>10584</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>347</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,13 +7018,13 @@
         <v>5917</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -7012,13 +7033,13 @@
         <v>16235</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -7027,13 +7048,13 @@
         <v>22152</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>182</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,13 +7069,13 @@
         <v>141317</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="H18" s="7">
         <v>249</v>
@@ -7063,13 +7084,13 @@
         <v>255251</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="M18" s="7">
         <v>434</v>
@@ -7078,13 +7099,13 @@
         <v>396569</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,7 +7161,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7152,13 +7173,13 @@
         <v>2698</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>334</v>
+        <v>190</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -7167,13 +7188,13 @@
         <v>12820</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>514</v>
+        <v>261</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -7182,13 +7203,13 @@
         <v>15518</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>89</v>
+        <v>519</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>166</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,13 +7224,13 @@
         <v>9610</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>521</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>457</v>
+        <v>522</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>517</v>
+        <v>403</v>
       </c>
       <c r="H21" s="7">
         <v>40</v>
@@ -7218,13 +7239,13 @@
         <v>26052</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>418</v>
+        <v>523</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="M21" s="7">
         <v>55</v>
@@ -7233,13 +7254,13 @@
         <v>35662</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>243</v>
+        <v>526</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>354</v>
+        <v>527</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,13 +7275,13 @@
         <v>207936</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>522</v>
+        <v>223</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="H22" s="7">
         <v>463</v>
@@ -7269,28 +7290,28 @@
         <v>270027</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>526</v>
+        <v>431</v>
       </c>
       <c r="M22" s="7">
         <v>771</v>
       </c>
       <c r="N22" s="7">
-        <v>477963</v>
+        <v>477962</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>427</v>
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7332,7 +7353,7 @@
         <v>850</v>
       </c>
       <c r="N23" s="7">
-        <v>529143</v>
+        <v>529142</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>24</v>
@@ -7358,13 +7379,13 @@
         <v>8953</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H24" s="7">
         <v>72</v>
@@ -7373,13 +7394,13 @@
         <v>42277</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>532</v>
+        <v>415</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="M24" s="7">
         <v>87</v>
@@ -7388,13 +7409,13 @@
         <v>51230</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>395</v>
+        <v>186</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,13 +7430,13 @@
         <v>33363</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="H25" s="7">
         <v>156</v>
@@ -7424,13 +7445,13 @@
         <v>84569</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>433</v>
+        <v>545</v>
       </c>
       <c r="M25" s="7">
         <v>206</v>
@@ -7439,13 +7460,13 @@
         <v>117931</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>245</v>
+        <v>548</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7460,13 +7481,13 @@
         <v>654605</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>315</v>
+        <v>549</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="H26" s="7">
         <v>1478</v>
@@ -7475,13 +7496,13 @@
         <v>898703</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="M26" s="7">
         <v>2440</v>
@@ -7490,13 +7511,13 @@
         <v>1553308</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>548</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,7 +7573,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
